--- a/StructureDefinition-complejidad-cama.xlsx
+++ b/StructureDefinition-complejidad-cama.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-complejidad-cama.xlsx
+++ b/StructureDefinition-complejidad-cama.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -191,10 +195,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -316,7 +316,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hospitallaflorida.cl/fhir/hlfhosp/ValueSet/VSComplejidadCama</t>
+    <t>https://hospitallaflorida.cl/fhir/hlfhosp/ValueSet/VSComplejidad</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -698,41 +698,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.06640625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="169.35546875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="170.84375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.27734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.5625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -832,7 +832,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>37</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -854,7 +854,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -866,13 +866,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -923,30 +923,30 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -969,13 +969,13 @@
         <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1014,19 +1014,19 @@
         <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1057,10 +1057,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -1134,10 +1134,10 @@
         <v>57</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -1162,10 +1162,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>64</v>
@@ -1240,7 +1240,7 @@
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>67</v>
@@ -1268,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -1280,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1337,22 +1337,22 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1383,7 +1383,7 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>72</v>
@@ -1430,19 +1430,19 @@
         <v>37</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -1454,10 +1454,10 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1476,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>37</v>
@@ -1555,7 +1555,7 @@
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
@@ -1583,7 +1583,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>37</v>
@@ -1660,7 +1660,7 @@
         <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>37</v>
@@ -1685,10 +1685,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>64</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>97</v>
@@ -1788,10 +1788,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>64</v>
@@ -1868,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>97</v>
@@ -1896,7 +1896,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -1975,7 +1975,7 @@
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
